--- a/summary/accuracy_summary.xlsx
+++ b/summary/accuracy_summary.xlsx
@@ -130,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -141,6 +141,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,7 +428,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,32 +442,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -479,12 +482,18 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
+      <c r="C4" s="1">
+        <v>0.75596814999999995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.75596814999999995</v>
+      </c>
       <c r="E4" s="3">
         <v>0.77200000000000002</v>
       </c>
@@ -493,10 +502,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
+      <c r="C5" s="1">
+        <v>0.76373625000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.75274724000000004</v>
+      </c>
       <c r="E5" s="3">
         <v>0.75</v>
       </c>
@@ -505,10 +520,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
+      <c r="C6" s="1">
+        <v>0.76216214999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.77297300000000002</v>
+      </c>
       <c r="E6" s="3">
         <v>0.74199999999999999</v>
       </c>
@@ -517,10 +538,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
+      <c r="C7" s="1">
+        <v>0.73949580000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.75350139999999999</v>
+      </c>
       <c r="E7" s="3">
         <v>0.747</v>
       </c>
@@ -529,10 +556,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
+      <c r="C8" s="1">
+        <v>0.77235770000000004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.77235770000000004</v>
+      </c>
       <c r="E8" s="3">
         <v>0.745</v>
       </c>
@@ -541,10 +574,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
+      <c r="C9" s="1">
+        <v>0.75741239999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.74123989999999995</v>
+      </c>
       <c r="E9" s="3">
         <v>0.79900000000000004</v>
       </c>
@@ -553,10 +592,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
+      <c r="C10" s="1">
+        <v>0.76151764</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.7506775</v>
+      </c>
       <c r="E10" s="3">
         <v>0.75800000000000001</v>
       </c>
@@ -565,10 +610,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
+      <c r="C11" s="1">
+        <v>0.75136614000000002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.70218579999999997</v>
+      </c>
       <c r="E11" s="3">
         <v>0.78800000000000003</v>
       </c>
@@ -577,10 +628,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
+      <c r="C12" s="1">
+        <v>0.78571427000000005</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.77197800000000005</v>
+      </c>
       <c r="E12" s="3">
         <v>0.77200000000000002</v>
       </c>
@@ -589,10 +646,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
+      <c r="C13" s="1">
+        <v>0.75842695999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.77247189999999999</v>
+      </c>
       <c r="E13" s="3">
         <v>0.77200000000000002</v>
       </c>
@@ -601,9 +664,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <f>AVERAGE(C4:C13)</f>
+        <v>0.76081574600000013</v>
+      </c>
+      <c r="D14" s="5">
+        <f>AVERAGE(D4:D13)</f>
+        <v>0.75461005899999989</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E4:E13)</f>
@@ -615,7 +686,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2">
@@ -631,7 +702,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -645,7 +716,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -659,7 +730,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="2">
         <v>4</v>
       </c>
@@ -673,7 +744,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -687,7 +758,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="2">
         <v>6</v>
       </c>
@@ -701,7 +772,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="2">
         <v>7</v>
       </c>
@@ -715,7 +786,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="2">
         <v>8</v>
       </c>
@@ -729,7 +800,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="2">
         <v>9</v>
       </c>
@@ -743,7 +814,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="2">
         <v>10</v>
       </c>
@@ -757,7 +828,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>

--- a/summary/accuracy_summary.xlsx
+++ b/summary/accuracy_summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,6 +93,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -145,6 +153,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,7 +437,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E15" sqref="E15:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,32 +451,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -482,17 +491,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.75596814999999995</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.75596814999999995</v>
+      <c r="C4" s="6">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.75600000000000001</v>
       </c>
       <c r="E4" s="3">
         <v>0.77200000000000002</v>
@@ -502,15 +511,15 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.76373625000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.75274724000000004</v>
+      <c r="C5" s="6">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.753</v>
       </c>
       <c r="E5" s="3">
         <v>0.75</v>
@@ -520,15 +529,15 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.76216214999999998</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.77297300000000002</v>
+      <c r="C6" s="6">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.77300000000000002</v>
       </c>
       <c r="E6" s="3">
         <v>0.74199999999999999</v>
@@ -538,15 +547,15 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.73949580000000004</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.75350139999999999</v>
+      <c r="C7" s="6">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.754</v>
       </c>
       <c r="E7" s="3">
         <v>0.747</v>
@@ -556,15 +565,15 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.77235770000000004</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.77235770000000004</v>
+      <c r="C8" s="6">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.77200000000000002</v>
       </c>
       <c r="E8" s="3">
         <v>0.745</v>
@@ -574,15 +583,15 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.75741239999999999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.74123989999999995</v>
+      <c r="C9" s="6">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.74099999999999999</v>
       </c>
       <c r="E9" s="3">
         <v>0.79900000000000004</v>
@@ -592,15 +601,15 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.76151764</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.7506775</v>
+      <c r="C10" s="6">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.751</v>
       </c>
       <c r="E10" s="3">
         <v>0.75800000000000001</v>
@@ -610,15 +619,15 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.75136614000000002</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.70218579999999997</v>
+      <c r="C11" s="6">
+        <v>0.751</v>
+      </c>
+      <c r="D11">
+        <v>0.70199999999999996</v>
       </c>
       <c r="E11" s="3">
         <v>0.78800000000000003</v>
@@ -628,15 +637,15 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.78571427000000005</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.77197800000000005</v>
+      <c r="C12" s="6">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D12">
+        <v>0.77200000000000002</v>
       </c>
       <c r="E12" s="3">
         <v>0.77200000000000002</v>
@@ -646,15 +655,15 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.75842695999999998</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.77247189999999999</v>
+      <c r="C13" s="6">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.77200000000000002</v>
       </c>
       <c r="E13" s="3">
         <v>0.77200000000000002</v>
@@ -664,17 +673,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="5">
         <f>AVERAGE(C4:C13)</f>
-        <v>0.76081574600000013</v>
+        <v>0.76070000000000004</v>
       </c>
       <c r="D14" s="5">
         <f>AVERAGE(D4:D13)</f>
-        <v>0.75461005899999989</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E4:E13)</f>
@@ -686,7 +695,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2">
@@ -694,7 +703,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>0.93500000000000005</v>
       </c>
       <c r="F15">
@@ -702,13 +711,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>0.92500000000000004</v>
       </c>
       <c r="F16">
@@ -716,13 +725,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>0.93200000000000005</v>
       </c>
       <c r="F17">
@@ -730,13 +739,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>0.92500000000000004</v>
       </c>
       <c r="F18">
@@ -744,13 +753,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>0.92400000000000004</v>
       </c>
       <c r="F19">
@@ -758,13 +767,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2">
         <v>6</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>0.92200000000000004</v>
       </c>
       <c r="F20">
@@ -772,13 +781,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="2">
         <v>7</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>0.91300000000000003</v>
       </c>
       <c r="F21">
@@ -786,13 +795,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="2">
         <v>8</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>0.93</v>
       </c>
       <c r="F22">
@@ -800,13 +809,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="2">
         <v>9</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>0.92900000000000005</v>
       </c>
       <c r="F23">
@@ -814,13 +823,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="2">
         <v>10</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>0.93899999999999995</v>
       </c>
       <c r="F24">
@@ -828,7 +837,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>

--- a/summary/accuracy_summary.xlsx
+++ b/summary/accuracy_summary.xlsx
@@ -68,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,14 +93,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,23 +130,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,7 +422,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E24"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,32 +436,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -491,197 +476,197 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.75600000000000001</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.77200000000000002</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0.76400000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.753</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>0.75</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.76200000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.77300000000000002</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>0.74199999999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>0.78</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>0.73899999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.754</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>0.747</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>0.77200000000000002</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.77200000000000002</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>0.745</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>0.75700000000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.74099999999999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>0.79900000000000004</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>0.70899999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>0.76200000000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.751</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>0.75800000000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>0.77700000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>0.751</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.70199999999999996</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>0.78800000000000003</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>0.78600000000000003</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.77200000000000002</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.77200000000000002</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>0.78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>0.75800000000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.77200000000000002</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.77200000000000002</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>0.76100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <f>AVERAGE(C4:C13)</f>
         <v>0.76070000000000004</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <f>AVERAGE(D4:D13)</f>
         <v>0.75460000000000005</v>
       </c>
@@ -695,154 +680,200 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6">
+      <c r="C15" s="2">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E15" s="4">
         <v>0.93500000000000005</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6">
+      <c r="C16" s="2">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="E16" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6">
+      <c r="C17" s="2">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E17" s="4">
         <v>0.93200000000000005</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>0.91700000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6">
+      <c r="C18" s="2">
         <v>0.92500000000000004</v>
       </c>
-      <c r="F18">
+      <c r="D18" s="2">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F18" s="2">
         <v>0.92300000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="6">
+      <c r="C19" s="2">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E19" s="4">
         <v>0.92400000000000004</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="6">
+      <c r="C20" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E20" s="4">
         <v>0.92200000000000004</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="2">
         <v>7</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="6">
+      <c r="C21" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="D21" s="2">
         <v>0.91300000000000003</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="4">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F21" s="2">
         <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="2">
         <v>8</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6">
+      <c r="C22" s="2">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E22" s="4">
         <v>0.93</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="2">
         <v>9</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="6">
+      <c r="C23" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E23" s="4">
         <v>0.92900000000000005</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>0.92100000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="2">
         <v>10</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="6">
+      <c r="C24" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="E24" s="4">
         <v>0.93899999999999995</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:D25" si="0">AVERAGE(C15:C24)</f>
+        <v>0.92140000000000022</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91510000000000002</v>
+      </c>
       <c r="E25" s="2">
         <f>AVERAGE(E15:E24)</f>
         <v>0.92740000000000011</v>
